--- a/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ACA093-3EBC-479A-BCB5-8A26EBC718C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0755149A-B721-41A4-ABDE-595F00FE293C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -373,13 +373,31 @@
     <t>select+name,ADCVD_Case_Number__c,Final_Team_Meeting_Deadline__c,Est_ITC_Notification_to_DOC_of_Final_Det__c,Investigation_Outcome__c,ITC_Notification_to_DOC_of_Final_Determ__c,Estimated_Order_FR_Published__c,Calculated_Order_FR_Signature__c,Final_Issues_Due_to_DAS__c,Final_Concurrence_Due_to_DAS__c,Final_Announcement_Date__c,Amended_Final_Announcement_Date__c,Next_Announcement_Date__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Next_Office_Deadline__c,Calculated_Preliminary_Signature__c,Prelim_Team_Meeting_Deadline__c,Prelim_Issues_Due_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Extension_of_days__c,Actual_Preliminary_Signature__c,Calculated_Final_Signature__c,Calculated_ITC_Prelim_Determination__c,ADCVD_Case_Type__c,Calculated_Prelim_Extension_Request_File__c,Calculated_Postponement_of_PrelimDeterFR__c,Will_you_Amend_the_Final__c,Actual_Amended_Final_Signature__c,Prelim_Extension_of_days__c,Actual_Final_Signature__c,Calculated_Amended_Final_Signature__c,Amended_Preliminary_Announcement_Date__c,Actual_Amended_Prelim_Determination_Sig__c,Signature_of_Prelim_Postponement_FR__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Amend_the_Preliminary_Determination__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Prelim_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Amend_Prelim_Issues_Due_to_DAS__c,Amend_Prelim_Concurrence_Due_to_DAS__c,Actual_Final_Issues_to_DAS__c,Calc_Amended_Prelim_Determination_Sig__c,Actual_Amend_Prelim_Issues_to_DAS__c+from+investigation__c+where+id='investigationId'</t>
   </si>
   <si>
-    <t>select+id,Name,Prelim_Extension__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
-  </si>
-  <si>
     <t>Published_Date__c</t>
   </si>
   <si>
     <t>2019-03-30</t>
+  </si>
+  <si>
+    <t>select+id,Name,Prelim_Extension__c,Status__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Amended_Final_Announcement_Date__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
+  </si>
+  <si>
+    <t>2019-08-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-08-32</t>
+  </si>
+  <si>
+    <t>2019-08-33</t>
+  </si>
+  <si>
+    <t>2019-08-34</t>
+  </si>
+  <si>
+    <t>2019-08-35</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -1189,7 +1207,7 @@
         <v>97</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>88</v>
@@ -1225,9 +1243,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="P2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
@@ -1264,9 +1284,11 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="P3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -1301,9 +1323,11 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="P4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -1336,9 +1360,11 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="P5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -1371,9 +1397,11 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="P6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -1412,9 +1440,11 @@
         <v>87</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="P7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -1446,10 +1476,10 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1479,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF623B-1CEA-4525-BADF-D1EB80677ABF}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0755149A-B721-41A4-ABDE-595F00FE293C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605E0F8-E705-469E-91A2-6791F64868C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>2019-03-30</t>
   </si>
   <si>
-    <t>select+id,Name,Prelim_Extension__c,Status__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Amended_Final_Announcement_Date__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
-  </si>
-  <si>
     <t>2019-08-30</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>2019-08-35</t>
+  </si>
+  <si>
+    <t>select+id,Name,Prelim_Extension__c,Status__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Calculated_Final_FR_Signature__c,Amended_Final_Announcement_Date__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -1244,10 +1244,10 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
@@ -1285,10 +1285,10 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -1324,10 +1324,10 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -1361,10 +1361,10 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -1398,10 +1398,10 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -1441,10 +1441,10 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>110</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1509,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF623B-1CEA-4525-BADF-D1EB80677ABF}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605E0F8-E705-469E-91A2-6791F64868C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F86F49-8E05-43D8-BE6A-9ECFF1ED56F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <t>Expected_Final_Signature_Before_Ext__c</t>
   </si>
   <si>
-    <t>select+name,Petition_Filed__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Actual_Initiation_Signature__c,Petition_Outcome__c,Actual_Initiation_Concurrence_to_DAS__c,Actual_Initiation_Issues_to_DAS__c,Next_Major_Deadline__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Issues_Due_to_DAS__c,Next_Due_to_DAS_Deadline__c,Next_Office_Deadline__c,Initiation_Announcement_Date__c,Next_Announcement_Date__c+from+Petition__c+where+id+=+'petitionId'</t>
-  </si>
-  <si>
     <t>2013-01-10</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>2019-01-30</t>
   </si>
   <si>
-    <t>select+name,ADCVD_Case_Number__c,Final_Team_Meeting_Deadline__c,Est_ITC_Notification_to_DOC_of_Final_Det__c,Investigation_Outcome__c,ITC_Notification_to_DOC_of_Final_Determ__c,Estimated_Order_FR_Published__c,Calculated_Order_FR_Signature__c,Final_Issues_Due_to_DAS__c,Final_Concurrence_Due_to_DAS__c,Final_Announcement_Date__c,Amended_Final_Announcement_Date__c,Next_Announcement_Date__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Next_Office_Deadline__c,Calculated_Preliminary_Signature__c,Prelim_Team_Meeting_Deadline__c,Prelim_Issues_Due_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Extension_of_days__c,Actual_Preliminary_Signature__c,Calculated_Final_Signature__c,Calculated_ITC_Prelim_Determination__c,ADCVD_Case_Type__c,Calculated_Prelim_Extension_Request_File__c,Calculated_Postponement_of_PrelimDeterFR__c,Will_you_Amend_the_Final__c,Actual_Amended_Final_Signature__c,Prelim_Extension_of_days__c,Actual_Final_Signature__c,Calculated_Amended_Final_Signature__c,Amended_Preliminary_Announcement_Date__c,Actual_Amended_Prelim_Determination_Sig__c,Signature_of_Prelim_Postponement_FR__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Amend_the_Preliminary_Determination__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Prelim_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Amend_Prelim_Issues_Due_to_DAS__c,Amend_Prelim_Concurrence_Due_to_DAS__c,Actual_Final_Issues_to_DAS__c,Calc_Amended_Prelim_Determination_Sig__c,Actual_Amend_Prelim_Issues_to_DAS__c+from+investigation__c+where+id='investigationId'</t>
-  </si>
-  <si>
     <t>Published_Date__c</t>
   </si>
   <si>
@@ -398,6 +392,12 @@
   </si>
   <si>
     <t>select+id,Name,Prelim_Extension__c,Status__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Calculated_Final_FR_Signature__c,Amended_Final_Announcement_Date__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
+  </si>
+  <si>
+    <t>select+name,Petition_Filed__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Actual_Initiation_Signature__c,Petition_Outcome__c,Actual_Initiation_Concurrence_to_DAS__c,Actual_Initiation_Issues_to_DAS__c,Next_Major_Deadline__c,Initiation_Concurrence_Due_to_DAS__c,Status__c,Initiation_Issues_Due_to_DAS__c,Next_Due_to_DAS_Deadline__c,Next_Office_Deadline__c,Initiation_Announcement_Date__c,Next_Announcement_Date__c+from+Petition__c+where+id+=+'petitionId'</t>
+  </si>
+  <si>
+    <t>select+Name,ADCVD_Case_Number__c,ADCVD_Case_Number_Text__c,Final_Team_Meeting_Deadline__c,Est_ITC_Notification_to_DOC_of_Final_Det__c,Investigation_Outcome__c,ITC_Notification_to_DOC_of_Final_Determ__c,Estimated_Order_FR_Published__c,Calculated_Order_FR_Signature__c,Final_Issues_Due_to_DAS__c,Final_Concurrence_Due_to_DAS__c,Final_Announcement_Date__c,Amended_Final_Announcement_Date__c,Next_Announcement_Date__c,Next_Due_to_DAS_Deadline__c,Preliminary_Announcement_Date__c,Next_Major_Deadline__c,Next_Office_Deadline__c,Calculated_Preliminary_Signature__c,Prelim_Team_Meeting_Deadline__c,Prelim_Issues_Due_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Extension_of_days__c,Actual_Preliminary_Signature__c,Calculated_Final_Signature__c,Calculated_ITC_Prelim_Determination__c,ADCVD_Case_Type__c,Calculated_Prelim_Extension_Request_File__c,Calculated_Postponement_of_PrelimDeterFR__c,Will_you_Amend_the_Final__c,Actual_Amended_Final_Signature__c,Prelim_Extension_of_days__c,Actual_Final_Signature__c,Calculated_Amended_Final_Signature__c,Amended_Preliminary_Announcement_Date__c,Actual_Amended_Prelim_Determination_Sig__c,Signature_of_Prelim_Postponement_FR__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Amend_the_Preliminary_Determination__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Prelim_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Amend_Prelim_Issues_Due_to_DAS__c,Amend_Prelim_Concurrence_Due_to_DAS__c,Actual_Final_Issues_to_DAS__c,Calc_Amended_Prelim_Determination_Sig__c,Actual_Amend_Prelim_Issues_to_DAS__c+from+investigation__c+where+id='investigationId'</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
         <v>85</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P8"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -1207,7 +1207,7 @@
         <v>97</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>88</v>
@@ -1244,10 +1244,10 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
@@ -1285,13 +1285,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1324,10 +1324,10 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -1361,10 +1361,10 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -1398,10 +1398,10 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -1441,10 +1441,10 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -1476,10 +1476,10 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>70</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>71</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>72</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>73</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>74</v>

--- a/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F86F49-8E05-43D8-BE6A-9ECFF1ED56F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B68F7-F74C-4CB2-B8D6-5D9E0388C4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="Invetigation" sheetId="6" r:id="rId3"/>
     <sheet name="Order" sheetId="9" r:id="rId4"/>
     <sheet name="Segments" sheetId="4" r:id="rId5"/>
-    <sheet name="Tolling Dates" sheetId="10" r:id="rId6"/>
-    <sheet name="dropdowns" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Litigations" sheetId="11" r:id="rId6"/>
+    <sheet name="Tolling Dates" sheetId="10" r:id="rId7"/>
+    <sheet name="dropdowns" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CaseType">dropdowns!$B$1:$B$2</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -391,13 +392,34 @@
     <t>2019-08-35</t>
   </si>
   <si>
-    <t>select+id,Name,Prelim_Extension__c,Status__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Calculated_Final_FR_Signature__c,Amended_Final_Announcement_Date__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
-  </si>
-  <si>
     <t>select+name,Petition_Filed__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Actual_Initiation_Signature__c,Petition_Outcome__c,Actual_Initiation_Concurrence_to_DAS__c,Actual_Initiation_Issues_to_DAS__c,Next_Major_Deadline__c,Initiation_Concurrence_Due_to_DAS__c,Status__c,Initiation_Issues_Due_to_DAS__c,Next_Due_to_DAS_Deadline__c,Next_Office_Deadline__c,Initiation_Announcement_Date__c,Next_Announcement_Date__c+from+Petition__c+where+id+=+'petitionId'</t>
   </si>
   <si>
     <t>select+Name,ADCVD_Case_Number__c,ADCVD_Case_Number_Text__c,Final_Team_Meeting_Deadline__c,Est_ITC_Notification_to_DOC_of_Final_Det__c,Investigation_Outcome__c,ITC_Notification_to_DOC_of_Final_Determ__c,Estimated_Order_FR_Published__c,Calculated_Order_FR_Signature__c,Final_Issues_Due_to_DAS__c,Final_Concurrence_Due_to_DAS__c,Final_Announcement_Date__c,Amended_Final_Announcement_Date__c,Next_Announcement_Date__c,Next_Due_to_DAS_Deadline__c,Preliminary_Announcement_Date__c,Next_Major_Deadline__c,Next_Office_Deadline__c,Calculated_Preliminary_Signature__c,Prelim_Team_Meeting_Deadline__c,Prelim_Issues_Due_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Extension_of_days__c,Actual_Preliminary_Signature__c,Calculated_Final_Signature__c,Calculated_ITC_Prelim_Determination__c,ADCVD_Case_Type__c,Calculated_Prelim_Extension_Request_File__c,Calculated_Postponement_of_PrelimDeterFR__c,Will_you_Amend_the_Final__c,Actual_Amended_Final_Signature__c,Prelim_Extension_of_days__c,Actual_Final_Signature__c,Calculated_Amended_Final_Signature__c,Amended_Preliminary_Announcement_Date__c,Actual_Amended_Prelim_Determination_Sig__c,Signature_of_Prelim_Postponement_FR__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Amend_the_Preliminary_Determination__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Prelim_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Amend_Prelim_Issues_Due_to_DAS__c,Amend_Prelim_Concurrence_Due_to_DAS__c,Actual_Final_Issues_to_DAS__c,Calc_Amended_Prelim_Determination_Sig__c,Actual_Amend_Prelim_Issues_to_DAS__c+from+investigation__c+where+id='investigationId'</t>
+  </si>
+  <si>
+    <t>select+id,Name,Prelim_Extension__c,Status__c,Actual_Initiation_Signature__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Calculated_Final_FR_Signature__c,Amended_Final_Announcement_Date__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
+  </si>
+  <si>
+    <t>Create_International_Litigation</t>
+  </si>
+  <si>
+    <t>TC_TAG_012</t>
+  </si>
+  <si>
+    <t>create international litigation</t>
+  </si>
+  <si>
+    <t>Create_Remand</t>
+  </si>
+  <si>
+    <t>TC_TAG_013</t>
+  </si>
+  <si>
+    <t>create Remand</t>
+  </si>
+  <si>
+    <t>select+id,name,Actual_Draft_Remand_Issues_to_DAS__c,Actual_Draft_Remand_Concurrence_to_DAS__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Team_Meeting_Deadline__c,Final_Issues_Due_to_DAS__c,Final_Concurrence_Due_to_DAS__c,Calculated_Final_Signature__c,Draft_Remand_Concurrence_Due_to_DAS__c,Draft_Remand_Issues_Due_to_DAS__c,Calculated_Draft_Remand_release_to_party__c,Prelim_Team_Meeting_Deadline__c,Prelim_Concurrence_Due_to_DAS__c,Prelim_Issues_Due_to_DAS__c,Calculated_Preliminary_Signature__c,Expected_Final_Signature_Before_Ext__c,Request_Filed__c,Prelim_Extension_of_days__c,Final_Extension_of_days__c+from+litigation__c+where+id='litigationId'</t>
   </si>
 </sst>
 </file>
@@ -824,7 +846,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -932,7 +954,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -993,7 +1015,7 @@
         <v>85</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1015,7 +1037,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1069,7 +1091,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1093,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E739F64-3552-4BCF-A79F-2E8C930645BA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1153,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -1247,10 +1269,10 @@
         <v>109</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1288,7 +1310,7 @@
         <v>110</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
@@ -1327,7 +1349,7 @@
         <v>111</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -1364,7 +1386,7 @@
         <v>112</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -1401,7 +1423,7 @@
         <v>113</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -1444,7 +1466,7 @@
         <v>114</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -1479,7 +1501,7 @@
         <v>108</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1506,6 +1528,110 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BC1DEC-7B51-4AFE-BA57-09949D5224CD}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{C1FC066B-9684-4B7F-9E26-565A8B0F771B}">
+      <formula1>tFalse</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF623B-1CEA-4525-BADF-D1EB80677ABF}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1615,7 +1741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFFF53-F7F9-426B-B3D1-DD3E2516D286}">
   <dimension ref="A1:G8"/>
   <sheetViews>

--- a/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/adcvd_datapool.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B68F7-F74C-4CB2-B8D6-5D9E0388C4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB506BE9-2B45-4CBD-95B8-82468B43CD10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E739F64-3552-4BCF-A79F-2E8C930645BA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -1185,7 +1185,7 @@
     <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8">
+    <row r="1" spans="1:17" ht="17.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>117</v>
       </c>
       <c r="Q3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BC1DEC-7B51-4AFE-BA57-09949D5224CD}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1618,7 +1618,7 @@
         <v>124</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +1636,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
